--- a/spliced/falling/2023-03-25_17-58-20/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-20/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>0.016951510682702</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.143467903137207</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.759878396987915</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.6699965000152588</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0186313893646001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.1244637966156005</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0003054326225537</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-58-20/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-20/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2751116752624511</v>
+        <v>-0.4484343528747558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1511368751525879</v>
+        <v>0.5805449485778809</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8383217453956604</v>
+        <v>-0.5587977170944214</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2446515262126922</v>
+        <v>0.0189368221908807</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6548475623130798</v>
+        <v>-0.030695978552103</v>
       </c>
       <c r="H2" t="n">
-        <v>0.099418319761753</v>
+        <v>-0.0142026171088218</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.4867386817932129</v>
+        <v>-0.6014323234558105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.431523323059082</v>
+        <v>0.5997557640075684</v>
       </c>
       <c r="E3" t="n">
-        <v>1.750975966453552</v>
+        <v>-0.4316743612289428</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6858489513397217</v>
+        <v>-0.0242818929255008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4210388660430908</v>
+        <v>0.0024434609804302</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0777326002717018</v>
+        <v>0.0209221355617046</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.8521728515625</v>
+        <v>-0.2612781524658203</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0302209854125976</v>
+        <v>0.5193090438842773</v>
       </c>
       <c r="E4" t="n">
-        <v>2.461471796035767</v>
+        <v>-0.4944255352020263</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.522595226764679</v>
+        <v>-0.0287106670439243</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0193949714303016</v>
+        <v>-0.0282525178045034</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1201877370476722</v>
+        <v>0.00534507073462</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.958938598632812</v>
+        <v>-0.2169137001037597</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.281919956207275</v>
+        <v>0.3676133155822754</v>
       </c>
       <c r="E5" t="n">
-        <v>3.567121505737305</v>
+        <v>-0.733814001083374</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3229950070381164</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08460483700037</v>
+        <v>-0.0001527163112768</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.8622363209724426</v>
+        <v>0.0277943685650825</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.48831844329834</v>
+        <v>-0.3025293350219726</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.316781997680664</v>
+        <v>0.4683008193969726</v>
       </c>
       <c r="E6" t="n">
-        <v>3.227118730545044</v>
+        <v>-0.587003767490387</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2035708427429199</v>
+        <v>-0.0300851128995418</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0485637858510017</v>
+        <v>-0.0401643887162208</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2283108830451965</v>
+        <v>0.0236710291355848</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.808905601501465</v>
+        <v>-0.4149298667907715</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.853449583053589</v>
+        <v>0.4677276611328125</v>
       </c>
       <c r="E7" t="n">
-        <v>3.023463010787964</v>
+        <v>-0.731619656085968</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0096211275085806</v>
+        <v>-0.0271835029125213</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.751795291900635</v>
+        <v>-0.0343611687421798</v>
       </c>
       <c r="H7" t="n">
-        <v>2.73774528503418</v>
+        <v>0.0047342055477201</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.194074630737305</v>
+        <v>-0.5511326789855957</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.235464096069336</v>
+        <v>0.6498098373413086</v>
       </c>
       <c r="E8" t="n">
-        <v>2.545171737670898</v>
+        <v>-0.522668182849884</v>
       </c>
       <c r="F8" t="n">
-        <v>1.817476868629456</v>
+        <v>-0.0245873257517814</v>
       </c>
       <c r="G8" t="n">
-        <v>7.313278675079346</v>
+        <v>-0.0226020142436027</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.927571773529053</v>
+        <v>-0.0163406450301408</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.053683757781982</v>
+        <v>-0.5137066841125488</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.27866268157959</v>
+        <v>0.4998054504394531</v>
       </c>
       <c r="E9" t="n">
-        <v>1.822883725166321</v>
+        <v>-0.6402766704559326</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7956519722938538</v>
+        <v>-0.0479529201984405</v>
       </c>
       <c r="G9" t="n">
-        <v>2.105194330215454</v>
+        <v>0.07635815441608421</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7250970602035522</v>
+        <v>-0.1252273768186569</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40.49892044067383</v>
+        <v>-0.6838326454162598</v>
       </c>
       <c r="D10" t="n">
-        <v>-10.35169410705566</v>
+        <v>0.6059346199035645</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.61685752868652</v>
+        <v>-0.2089821100234985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1913535445928573</v>
+        <v>0.1218676194548606</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.910022854804993</v>
+        <v>0.3381139039993286</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7344127297401428</v>
+        <v>-0.0650571510195732</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.409126281738281</v>
+        <v>-0.2751116752624511</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.144435882568359</v>
+        <v>0.1511368751525879</v>
       </c>
       <c r="E11" t="n">
-        <v>4.332699298858643</v>
+        <v>0.8383217453956604</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2770273983478546</v>
+        <v>-0.2446515262126922</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6440047025680542</v>
+        <v>0.6548475623130798</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5427537560462952</v>
+        <v>0.099418319761753</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.568361282348633</v>
+        <v>-0.4867386817932129</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.331024646759033</v>
+        <v>0.431523323059082</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.451077461242676</v>
+        <v>1.750975966453552</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4552473127841949</v>
+        <v>-0.6858489513397217</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.961766481399536</v>
+        <v>0.4210388660430908</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.498757839202881</v>
+        <v>0.0777326002717018</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.690401554107666</v>
+        <v>-0.8521728515625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6503615379333496</v>
+        <v>-0.0302209854125976</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9920754432678224</v>
+        <v>2.461471796035767</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00335975876078</v>
+        <v>-0.522595226764679</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4912883639335632</v>
+        <v>0.0193949714303016</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5406157374382019</v>
+        <v>-0.1201877370476722</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.458261489868164</v>
+        <v>-1.958938598632812</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3125958442687988</v>
+        <v>-1.281919956207275</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.417350053787231</v>
+        <v>3.567121505737305</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1117883399128913</v>
+        <v>-0.3229950070381164</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2916881442070007</v>
+        <v>-0.08460483700037</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0818559452891349</v>
+        <v>-0.8622363209724426</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.057792663574219</v>
+        <v>-2.48831844329834</v>
       </c>
       <c r="D15" t="n">
-        <v>0.522294282913208</v>
+        <v>-2.316781997680664</v>
       </c>
       <c r="E15" t="n">
-        <v>4.646303176879883</v>
+        <v>3.227118730545044</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1504255682229995</v>
+        <v>0.2035708427429199</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.470518946647644</v>
+        <v>-0.0485637858510017</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2368630021810531</v>
+        <v>-0.2283108830451965</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.069650650024414</v>
+        <v>-1.808905601501465</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6974973678588867</v>
+        <v>-2.853449583053589</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6427264213562012</v>
+        <v>3.023463010787964</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1156062483787536</v>
+        <v>-0.0096211275085806</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0591012127697467</v>
+        <v>-2.751795291900635</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1562287807464599</v>
+        <v>2.73774528503418</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.3710613250732422</v>
+        <v>-3.194074630737305</v>
       </c>
       <c r="D17" t="n">
-        <v>1.194808006286621</v>
+        <v>-2.235464096069336</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7181463241577148</v>
+        <v>2.545171737670898</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0158824957907199</v>
+        <v>1.817476868629456</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0618501044809818</v>
+        <v>7.313278675079346</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.14553864300251</v>
+        <v>-2.927571773529053</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4149093627929687</v>
+        <v>-5.053683757781982</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6576159000396729</v>
+        <v>-2.27866268157959</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1679193973541259</v>
+        <v>1.822883725166321</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0102319931611418</v>
+        <v>-0.7956519722938538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1088867336511612</v>
+        <v>2.105194330215454</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0616973899304866</v>
+        <v>-0.7250970602035522</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.8271169662475586</v>
+        <v>40.49892044067383</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0645728111267089</v>
+        <v>-10.35169410705566</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.119891881942749</v>
+        <v>-22.61685752868652</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0007635815418325</v>
+        <v>0.1913535445928573</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0584903471171855</v>
+        <v>-1.910022854804993</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0714712366461753</v>
+        <v>0.7344127297401428</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.8584275245666504</v>
+        <v>1.409126281738281</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4949264526367187</v>
+        <v>-5.144435882568359</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4602115154266357</v>
+        <v>4.332699298858643</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.2770273983478546</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0311541277915239</v>
+        <v>-0.6440047025680542</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0597120784223079</v>
+        <v>0.5427537560462952</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-2.568361282348633</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.331024646759033</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.451077461242676</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4552473127841949</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-3.961766481399536</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1.498757839202881</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.690401554107666</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6503615379333496</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9920754432678224</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.00335975876078</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4912883639335632</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5406157374382019</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.458261489868164</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.3125958442687988</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.417350053787231</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1117883399128913</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.2916881442070007</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0818559452891349</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3.057792663574219</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.522294282913208</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.646303176879883</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1504255682229995</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.470518946647644</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2368630021810531</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.069650650024414</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6974973678588867</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6427264213562012</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1156062483787536</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0591012127697467</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.1562287807464599</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3710613250732422</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.194808006286621</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.7181463241577148</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0158824957907199</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0618501044809818</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.14553864300251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4149093627929687</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6576159000396729</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1679193973541259</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0102319931611418</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.1088867336511612</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0616973899304866</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.8271169662475586</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0645728111267089</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.119891881942749</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0007635815418325</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0584903471171855</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0714712366461753</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.8584275245666504</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4949264526367187</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.4602115154266357</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0311541277915239</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0597120784223079</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>-0.2275142669677734</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>0.6816375255584717</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E30" t="n">
         <v>-0.3714289665222168</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F30" t="n">
         <v>-0.0137444678694009</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G30" t="n">
         <v>-0.1533271819353103</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>0.016951510682702</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.143467903137207</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.759878396987915</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.6699965000152588</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0186313893646001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.1244637966156005</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0003054326225537</v>
       </c>
     </row>
   </sheetData>
